--- a/April'21/Bank Statement.xlsx
+++ b/April'21/Bank Statement.xlsx
@@ -25,112 +25,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Windows User</author>
-  </authors>
-  <commentList>
-    <comment ref="D10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Windows User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-klip File+Marker Pen+Red Pen</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Windows User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Jharu+Harpic</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Windows User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Tissue</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D22" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Windows User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Girish</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>*</author>
@@ -181,6 +75,64 @@
           </rPr>
           <t xml:space="preserve">
 Decoretion+banner+Lunce+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="C8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+jilani mosjid market</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tuhin mosjid market</t>
         </r>
       </text>
     </comment>
@@ -246,66 +198,8 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
-    <comment ref="C8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-jilani mosjid market</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Tuhin mosjid market</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="157">
   <si>
     <t>Bank Guarantee</t>
   </si>
@@ -760,19 +654,22 @@
     <t>31.03.2021</t>
   </si>
   <si>
+    <t>01.04.2021</t>
+  </si>
+  <si>
+    <t>31/30.03.2021</t>
+  </si>
+  <si>
+    <t>Date:04.04.2021</t>
+  </si>
+  <si>
+    <t>Date :02-04-2021</t>
+  </si>
+  <si>
+    <t>03.04.2021</t>
+  </si>
+  <si>
     <t>Date:03.04.2021</t>
-  </si>
-  <si>
-    <t>01.04.2021</t>
-  </si>
-  <si>
-    <t>Date :01-04-2021</t>
-  </si>
-  <si>
-    <t>31/30.03.2021</t>
-  </si>
-  <si>
-    <t>Date:01.04.2021</t>
   </si>
 </sst>
 </file>
@@ -2967,6 +2864,57 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2989,57 +2937,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3747,11 +3644,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
@@ -3763,70 +3660,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="331" t="s">
+      <c r="A1" s="323" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="331"/>
-      <c r="C1" s="331"/>
-      <c r="D1" s="331"/>
-      <c r="E1" s="331"/>
-      <c r="F1" s="331"/>
-      <c r="G1" s="331"/>
-      <c r="H1" s="331"/>
-      <c r="I1" s="331"/>
-      <c r="J1" s="331"/>
-      <c r="K1" s="331"/>
-      <c r="L1" s="331"/>
-      <c r="M1" s="331"/>
-      <c r="N1" s="331"/>
-      <c r="O1" s="331"/>
-      <c r="P1" s="331"/>
-      <c r="Q1" s="331"/>
-      <c r="R1" s="331"/>
+      <c r="B1" s="323"/>
+      <c r="C1" s="323"/>
+      <c r="D1" s="323"/>
+      <c r="E1" s="323"/>
+      <c r="F1" s="323"/>
+      <c r="G1" s="323"/>
+      <c r="H1" s="323"/>
+      <c r="I1" s="323"/>
+      <c r="J1" s="323"/>
+      <c r="K1" s="323"/>
+      <c r="L1" s="323"/>
+      <c r="M1" s="323"/>
+      <c r="N1" s="323"/>
+      <c r="O1" s="323"/>
+      <c r="P1" s="323"/>
+      <c r="Q1" s="323"/>
+      <c r="R1" s="323"/>
     </row>
     <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="332" t="s">
+      <c r="A2" s="324" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="332"/>
-      <c r="C2" s="332"/>
-      <c r="D2" s="332"/>
-      <c r="E2" s="332"/>
-      <c r="F2" s="332"/>
-      <c r="G2" s="332"/>
-      <c r="H2" s="332"/>
-      <c r="I2" s="332"/>
-      <c r="J2" s="332"/>
-      <c r="K2" s="332"/>
-      <c r="L2" s="332"/>
-      <c r="M2" s="332"/>
-      <c r="N2" s="332"/>
-      <c r="O2" s="332"/>
-      <c r="P2" s="332"/>
-      <c r="Q2" s="332"/>
-      <c r="R2" s="332"/>
+      <c r="B2" s="324"/>
+      <c r="C2" s="324"/>
+      <c r="D2" s="324"/>
+      <c r="E2" s="324"/>
+      <c r="F2" s="324"/>
+      <c r="G2" s="324"/>
+      <c r="H2" s="324"/>
+      <c r="I2" s="324"/>
+      <c r="J2" s="324"/>
+      <c r="K2" s="324"/>
+      <c r="L2" s="324"/>
+      <c r="M2" s="324"/>
+      <c r="N2" s="324"/>
+      <c r="O2" s="324"/>
+      <c r="P2" s="324"/>
+      <c r="Q2" s="324"/>
+      <c r="R2" s="324"/>
     </row>
     <row r="3" spans="1:25" s="99" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="341" t="s">
+      <c r="A3" s="333" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="342"/>
-      <c r="C3" s="342"/>
-      <c r="D3" s="342"/>
-      <c r="E3" s="342"/>
-      <c r="F3" s="342"/>
-      <c r="G3" s="342"/>
-      <c r="H3" s="342"/>
-      <c r="I3" s="342"/>
-      <c r="J3" s="342"/>
-      <c r="K3" s="342"/>
-      <c r="L3" s="342"/>
-      <c r="M3" s="342"/>
-      <c r="N3" s="342"/>
-      <c r="O3" s="342"/>
-      <c r="P3" s="342"/>
-      <c r="Q3" s="342"/>
-      <c r="R3" s="343"/>
+      <c r="B3" s="334"/>
+      <c r="C3" s="334"/>
+      <c r="D3" s="334"/>
+      <c r="E3" s="334"/>
+      <c r="F3" s="334"/>
+      <c r="G3" s="334"/>
+      <c r="H3" s="334"/>
+      <c r="I3" s="334"/>
+      <c r="J3" s="334"/>
+      <c r="K3" s="334"/>
+      <c r="L3" s="334"/>
+      <c r="M3" s="334"/>
+      <c r="N3" s="334"/>
+      <c r="O3" s="334"/>
+      <c r="P3" s="334"/>
+      <c r="Q3" s="334"/>
+      <c r="R3" s="335"/>
       <c r="T3" s="100"/>
       <c r="U3" s="101"/>
       <c r="V3" s="101"/>
@@ -3835,55 +3732,55 @@
       <c r="Y3" s="102"/>
     </row>
     <row r="4" spans="1:25" s="102" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="333" t="s">
+      <c r="A4" s="325" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="335" t="s">
+      <c r="B4" s="327" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="335" t="s">
+      <c r="C4" s="327" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="329" t="s">
+      <c r="D4" s="321" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="329" t="s">
+      <c r="E4" s="321" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="329" t="s">
+      <c r="F4" s="321" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="329" t="s">
+      <c r="G4" s="321" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="329" t="s">
+      <c r="H4" s="321" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="329" t="s">
+      <c r="I4" s="321" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="329" t="s">
+      <c r="J4" s="321" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="344" t="s">
+      <c r="K4" s="336" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="321" t="s">
+      <c r="L4" s="338" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="323" t="s">
+      <c r="M4" s="340" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="325" t="s">
+      <c r="N4" s="342" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="327" t="s">
+      <c r="O4" s="344" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="337" t="s">
+      <c r="P4" s="329" t="s">
         <v>129</v>
       </c>
-      <c r="Q4" s="339" t="s">
+      <c r="Q4" s="331" t="s">
         <v>130</v>
       </c>
       <c r="R4" s="103" t="s">
@@ -3896,23 +3793,23 @@
       <c r="X4" s="101"/>
     </row>
     <row r="5" spans="1:25" s="102" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="334"/>
-      <c r="B5" s="336"/>
-      <c r="C5" s="336"/>
-      <c r="D5" s="330"/>
-      <c r="E5" s="330"/>
-      <c r="F5" s="330"/>
-      <c r="G5" s="330"/>
-      <c r="H5" s="330"/>
-      <c r="I5" s="330"/>
-      <c r="J5" s="330"/>
-      <c r="K5" s="345"/>
-      <c r="L5" s="322"/>
-      <c r="M5" s="324"/>
-      <c r="N5" s="326"/>
-      <c r="O5" s="328"/>
-      <c r="P5" s="338"/>
-      <c r="Q5" s="340"/>
+      <c r="A5" s="326"/>
+      <c r="B5" s="328"/>
+      <c r="C5" s="328"/>
+      <c r="D5" s="322"/>
+      <c r="E5" s="322"/>
+      <c r="F5" s="322"/>
+      <c r="G5" s="322"/>
+      <c r="H5" s="322"/>
+      <c r="I5" s="322"/>
+      <c r="J5" s="322"/>
+      <c r="K5" s="337"/>
+      <c r="L5" s="339"/>
+      <c r="M5" s="341"/>
+      <c r="N5" s="343"/>
+      <c r="O5" s="345"/>
+      <c r="P5" s="330"/>
+      <c r="Q5" s="332"/>
       <c r="R5" s="105" t="s">
         <v>34</v>
       </c>
@@ -3925,7 +3822,7 @@
     </row>
     <row r="6" spans="1:25" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="109" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B6" s="110"/>
       <c r="C6" s="111"/>
@@ -3933,12 +3830,14 @@
       <c r="E6" s="111"/>
       <c r="F6" s="111"/>
       <c r="G6" s="111">
-        <v>1705</v>
+        <v>1805</v>
       </c>
       <c r="H6" s="111"/>
       <c r="I6" s="111"/>
       <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
+      <c r="K6" s="111">
+        <v>130</v>
+      </c>
       <c r="L6" s="111"/>
       <c r="M6" s="111"/>
       <c r="N6" s="111"/>
@@ -3947,7 +3846,7 @@
       <c r="Q6" s="112"/>
       <c r="R6" s="113">
         <f>SUM(B6:Q6)</f>
-        <v>1705</v>
+        <v>1935</v>
       </c>
       <c r="S6" s="114"/>
       <c r="T6" s="106"/>
@@ -3957,13 +3856,17 @@
       <c r="X6" s="101"/>
     </row>
     <row r="7" spans="1:25" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="109"/>
+      <c r="A7" s="109" t="s">
+        <v>155</v>
+      </c>
       <c r="B7" s="110"/>
       <c r="C7" s="111"/>
       <c r="D7" s="111"/>
       <c r="E7" s="111"/>
       <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
+      <c r="G7" s="111">
+        <v>1775</v>
+      </c>
       <c r="H7" s="111"/>
       <c r="I7" s="111"/>
       <c r="J7" s="111"/>
@@ -3976,7 +3879,7 @@
       <c r="Q7" s="112"/>
       <c r="R7" s="113">
         <f>SUM(B7:Q7)</f>
-        <v>0</v>
+        <v>1775</v>
       </c>
       <c r="S7" s="114"/>
       <c r="T7" s="107"/>
@@ -4793,7 +4696,7 @@
       </c>
       <c r="G37" s="132">
         <f t="shared" si="1"/>
-        <v>1705</v>
+        <v>3580</v>
       </c>
       <c r="H37" s="132">
         <f t="shared" si="1"/>
@@ -4809,7 +4712,7 @@
       </c>
       <c r="K37" s="132">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="L37" s="132">
         <f t="shared" si="1"/>
@@ -4837,7 +4740,7 @@
       </c>
       <c r="R37" s="134">
         <f>SUM(R6:R36)</f>
-        <v>1705</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
@@ -6834,6 +6737,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A4:A5"/>
@@ -6846,17 +6757,8 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6866,7 +6768,7 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6999,7 +6901,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B6" s="50">
         <v>103000</v>
@@ -7028,9 +6930,15 @@
       <c r="S6" s="39"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="46"/>
+      <c r="A7" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="50">
+        <v>0</v>
+      </c>
+      <c r="C7" s="46">
+        <v>0</v>
+      </c>
       <c r="D7" s="45">
         <f>D6+B7-C7</f>
         <v>345250</v>
@@ -8830,7 +8738,7 @@
     </row>
     <row r="2" spans="1:12" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A2" s="353" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B2" s="354"/>
       <c r="C2" s="354"/>
@@ -8878,7 +8786,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="87">
-        <v>1510537.425</v>
+        <v>1252932.0349999999</v>
       </c>
       <c r="F5" s="4"/>
       <c r="J5" s="146" t="s">
@@ -8896,7 +8804,7 @@
         <v>38</v>
       </c>
       <c r="B6" s="30">
-        <v>1847.0650000000001</v>
+        <v>4450.0349999999999</v>
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="29" t="s">
@@ -8924,7 +8832,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="88">
-        <v>236756</v>
+        <v>498952</v>
       </c>
       <c r="F7" s="3"/>
       <c r="J7" s="146" t="s">
@@ -8942,14 +8850,14 @@
         <v>39</v>
       </c>
       <c r="B8" s="30">
-        <v>1705</v>
+        <v>3710</v>
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="29" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="89">
-        <v>145548.64000000013</v>
+        <v>141556</v>
       </c>
       <c r="F8" s="3"/>
       <c r="J8" s="146" t="s">
@@ -9037,7 +8945,7 @@
       </c>
       <c r="B12" s="38">
         <f>B6-B8-B9</f>
-        <v>142.06500000000005</v>
+        <v>740.03499999999985</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="29" t="s">
@@ -9095,7 +9003,7 @@
       </c>
       <c r="B15" s="30">
         <f>B5+B12-B13-B11</f>
-        <v>2000142.0649999999</v>
+        <v>2000740.0349999999</v>
       </c>
       <c r="C15" s="37"/>
       <c r="D15" s="29" t="s">
@@ -9103,7 +9011,7 @@
       </c>
       <c r="E15" s="89">
         <f>E5+E6+E7+E8+E9+E10+E12-E11+E13</f>
-        <v>2000142.0650000004</v>
+        <v>2000740.0350000001</v>
       </c>
       <c r="F15" s="22"/>
       <c r="J15" s="146" t="s">
@@ -9195,7 +9103,7 @@
       <c r="D21" s="13"/>
       <c r="F21" s="26"/>
       <c r="J21" s="83" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K21" s="83" t="s">
         <v>105</v>
@@ -9318,8 +9226,8 @@
   <dimension ref="A1:V168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S11" sqref="S11"/>
+      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9430,7 +9338,7 @@
     </row>
     <row r="5" spans="1:22" s="148" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="372" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B5" s="373"/>
       <c r="C5" s="192"/>
@@ -9611,13 +9519,13 @@
       <c r="L9" s="167"/>
       <c r="M9" s="168"/>
       <c r="N9" s="169">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="O9" s="169">
         <v>5</v>
       </c>
       <c r="P9" s="169">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="Q9" s="167"/>
       <c r="R9" s="148"/>
@@ -9652,7 +9560,7 @@
       <c r="L10" s="167"/>
       <c r="M10" s="168"/>
       <c r="N10" s="169">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="O10" s="173"/>
       <c r="P10" s="169">
@@ -9723,9 +9631,7 @@
       <c r="K12" s="171"/>
       <c r="L12" s="167"/>
       <c r="M12" s="168"/>
-      <c r="N12" s="169">
-        <v>15</v>
-      </c>
+      <c r="N12" s="169"/>
       <c r="O12" s="169">
         <v>10</v>
       </c>
@@ -9756,11 +9662,9 @@
       <c r="L13" s="167"/>
       <c r="M13" s="168"/>
       <c r="N13" s="169">
-        <v>50</v>
-      </c>
-      <c r="O13" s="169">
-        <v>5</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="O13" s="169"/>
       <c r="P13" s="169"/>
       <c r="Q13" s="174"/>
       <c r="T13" s="251"/>
@@ -9876,13 +9780,13 @@
       <c r="D17" s="154"/>
       <c r="E17" s="150"/>
       <c r="F17" s="167">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="G17" s="167">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="H17" s="171">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="I17" s="167"/>
       <c r="J17" s="171"/>
@@ -9892,7 +9796,9 @@
       <c r="N17" s="169">
         <v>28</v>
       </c>
-      <c r="O17" s="169"/>
+      <c r="O17" s="169">
+        <v>25</v>
+      </c>
       <c r="P17" s="169">
         <v>11</v>
       </c>
@@ -10199,15 +10105,15 @@
       </c>
       <c r="F29" s="200">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="G29" s="200">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>230</v>
       </c>
       <c r="H29" s="200">
         <f t="shared" si="0"/>
-        <v>270</v>
+        <v>210</v>
       </c>
       <c r="I29" s="200">
         <f t="shared" si="0"/>
@@ -10231,15 +10137,15 @@
       </c>
       <c r="N29" s="200">
         <f t="shared" si="0"/>
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O29" s="200">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="P29" s="200">
         <f t="shared" si="0"/>
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="Q29" s="201"/>
     </row>
@@ -12428,7 +12334,7 @@
   <dimension ref="A1:AD59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z20" sqref="Z20"/>
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12468,7 +12374,7 @@
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="386" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B2" s="386"/>
       <c r="C2" s="386"/>
